--- a/2022/Symphony/Others/Target/August/Target August'22.xlsx
+++ b/2022/Symphony/Others/Target/August/Target August'22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Target\August\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1190,6 +1190,16 @@
     <xf numFmtId="9" fontId="6" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="14" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,16 +1221,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1763,7 +1763,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="AD4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2117,115 +2117,115 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:36" s="98" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="77" t="s">
+      <c r="C5" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="97">
         <f t="shared" si="0"/>
         <v>6673745.8934951453</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="97">
         <f t="shared" si="1"/>
         <v>4630</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="97">
         <v>906</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="97">
         <v>396</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="97">
         <v>342</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="97">
         <v>409</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="97">
         <v>230</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="97">
         <v>342</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="97">
         <v>159</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="97">
         <v>165</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="97">
         <v>115</v>
       </c>
-      <c r="P5" s="76">
+      <c r="P5" s="97">
         <v>95</v>
       </c>
-      <c r="Q5" s="76">
+      <c r="Q5" s="97">
         <v>230</v>
       </c>
-      <c r="R5" s="76">
+      <c r="R5" s="97">
         <v>101</v>
       </c>
-      <c r="S5" s="76">
+      <c r="S5" s="97">
         <v>184</v>
       </c>
-      <c r="T5" s="76">
+      <c r="T5" s="97">
         <v>114</v>
       </c>
-      <c r="U5" s="76">
+      <c r="U5" s="97">
         <v>151</v>
       </c>
-      <c r="V5" s="76">
+      <c r="V5" s="97">
         <v>256</v>
       </c>
-      <c r="W5" s="76">
+      <c r="W5" s="97">
         <v>80</v>
       </c>
-      <c r="X5" s="76">
+      <c r="X5" s="97">
         <v>205</v>
       </c>
-      <c r="Y5" s="76">
+      <c r="Y5" s="97">
         <v>18</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="97">
         <v>14</v>
       </c>
-      <c r="AA5" s="76">
+      <c r="AA5" s="97">
         <v>10</v>
       </c>
-      <c r="AB5" s="76">
+      <c r="AB5" s="97">
         <v>14</v>
       </c>
-      <c r="AC5" s="76">
+      <c r="AC5" s="97">
         <v>13</v>
       </c>
-      <c r="AD5" s="76">
+      <c r="AD5" s="97">
         <v>19</v>
       </c>
-      <c r="AE5" s="76">
+      <c r="AE5" s="97">
         <v>12</v>
       </c>
-      <c r="AF5" s="76">
+      <c r="AF5" s="97">
         <v>6</v>
       </c>
-      <c r="AG5" s="76">
+      <c r="AG5" s="97">
         <v>8</v>
       </c>
-      <c r="AH5" s="76">
+      <c r="AH5" s="97">
         <v>7</v>
       </c>
-      <c r="AI5" s="76">
+      <c r="AI5" s="97">
         <v>17</v>
       </c>
-      <c r="AJ5" s="76">
+      <c r="AJ5" s="97">
         <v>12</v>
       </c>
     </row>
@@ -2453,115 +2453,115 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="105" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
+    <row r="8" spans="1:36" s="98" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="104">
+      <c r="C8" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="97">
         <f t="shared" si="0"/>
         <v>15500803.226019418</v>
       </c>
-      <c r="F8" s="104">
+      <c r="F8" s="97">
         <f t="shared" si="1"/>
         <v>7134</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="97">
         <v>1065</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="97">
         <v>508</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="97">
         <v>542</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="97">
         <v>423</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="97">
         <v>334</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="97">
         <v>403</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="97">
         <v>358</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="97">
         <v>470</v>
       </c>
-      <c r="O8" s="104">
+      <c r="O8" s="97">
         <v>135</v>
       </c>
-      <c r="P8" s="104">
+      <c r="P8" s="97">
         <v>63</v>
       </c>
-      <c r="Q8" s="104">
+      <c r="Q8" s="97">
         <v>322</v>
       </c>
-      <c r="R8" s="104">
+      <c r="R8" s="97">
         <v>133</v>
       </c>
-      <c r="S8" s="104">
+      <c r="S8" s="97">
         <v>288</v>
       </c>
-      <c r="T8" s="104">
+      <c r="T8" s="97">
         <v>137</v>
       </c>
-      <c r="U8" s="104">
+      <c r="U8" s="97">
         <v>402</v>
       </c>
-      <c r="V8" s="104">
+      <c r="V8" s="97">
         <v>253</v>
       </c>
-      <c r="W8" s="104">
+      <c r="W8" s="97">
         <v>156</v>
       </c>
-      <c r="X8" s="104">
+      <c r="X8" s="97">
         <v>336</v>
       </c>
-      <c r="Y8" s="104">
+      <c r="Y8" s="97">
         <v>31</v>
       </c>
-      <c r="Z8" s="104">
+      <c r="Z8" s="97">
         <v>26</v>
       </c>
-      <c r="AA8" s="104">
+      <c r="AA8" s="97">
         <v>51</v>
       </c>
-      <c r="AB8" s="104">
+      <c r="AB8" s="97">
         <v>44</v>
       </c>
-      <c r="AC8" s="104">
+      <c r="AC8" s="97">
         <v>43</v>
       </c>
-      <c r="AD8" s="104">
+      <c r="AD8" s="97">
         <v>139</v>
       </c>
-      <c r="AE8" s="104">
+      <c r="AE8" s="97">
         <v>129</v>
       </c>
-      <c r="AF8" s="104">
+      <c r="AF8" s="97">
         <v>38</v>
       </c>
-      <c r="AG8" s="104">
+      <c r="AG8" s="97">
         <v>28</v>
       </c>
-      <c r="AH8" s="104">
+      <c r="AH8" s="97">
         <v>55</v>
       </c>
-      <c r="AI8" s="104">
+      <c r="AI8" s="97">
         <v>148</v>
       </c>
-      <c r="AJ8" s="104">
+      <c r="AJ8" s="97">
         <v>74</v>
       </c>
     </row>
@@ -2677,115 +2677,115 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:36" s="98" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="72">
+      <c r="C10" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="97">
         <f t="shared" si="0"/>
         <v>12169346.375436895</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="97">
         <f t="shared" si="1"/>
         <v>6893</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="97">
         <v>1291</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="97">
         <v>556</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="97">
         <v>585</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="97">
         <v>470</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="97">
         <v>212</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="97">
         <v>386</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="97">
         <v>234</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="97">
         <v>273</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="97">
         <v>124</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="97">
         <v>73</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="97">
         <v>483</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="97">
         <v>105</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="97">
         <v>365</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="97">
         <v>152</v>
       </c>
-      <c r="U10" s="76">
+      <c r="U10" s="97">
         <v>346</v>
       </c>
-      <c r="V10" s="76">
+      <c r="V10" s="97">
         <v>233</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W10" s="97">
         <v>176</v>
       </c>
-      <c r="X10" s="76">
+      <c r="X10" s="97">
         <v>359</v>
       </c>
-      <c r="Y10" s="76">
+      <c r="Y10" s="97">
         <v>27</v>
       </c>
-      <c r="Z10" s="76">
+      <c r="Z10" s="97">
         <v>23</v>
       </c>
-      <c r="AA10" s="76">
+      <c r="AA10" s="97">
         <v>33</v>
       </c>
-      <c r="AB10" s="76">
+      <c r="AB10" s="97">
         <v>35</v>
       </c>
-      <c r="AC10" s="76">
+      <c r="AC10" s="97">
         <v>18</v>
       </c>
-      <c r="AD10" s="76">
+      <c r="AD10" s="97">
         <v>78</v>
       </c>
-      <c r="AE10" s="76">
+      <c r="AE10" s="97">
         <v>68</v>
       </c>
-      <c r="AF10" s="76">
+      <c r="AF10" s="97">
         <v>25</v>
       </c>
-      <c r="AG10" s="76">
+      <c r="AG10" s="97">
         <v>16</v>
       </c>
-      <c r="AH10" s="76">
+      <c r="AH10" s="97">
         <v>26</v>
       </c>
-      <c r="AI10" s="76">
+      <c r="AI10" s="97">
         <v>83</v>
       </c>
-      <c r="AJ10" s="76">
+      <c r="AJ10" s="97">
         <v>38</v>
       </c>
     </row>
@@ -3462,12 +3462,12 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="79">
         <f t="shared" ref="E17:AJ17" si="2">SUM(E4:E16)</f>
         <v>128392875.60601941</v>
@@ -5307,12 +5307,12 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="79">
         <f t="shared" ref="E17:AJ17" si="2">SUM(E4:E16)</f>
         <v>131879085</v>
@@ -5494,25 +5494,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="100" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="64">
@@ -5607,13 +5607,13 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="48" t="s">
         <v>173</v>
       </c>
@@ -15079,25 +15079,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="100" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="47">
@@ -15192,13 +15192,13 @@
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="48" t="s">
         <v>173</v>
       </c>
@@ -26972,25 +26972,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="100" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="47">
@@ -27085,13 +27085,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="48" t="s">
         <v>173</v>
       </c>
